--- a/biology/Botanique/Pachysandra/Pachysandra.xlsx
+++ b/biology/Botanique/Pachysandra/Pachysandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachysandra est un genre d'une dizaine d'espèces de la famille des Buxacées, originaire  du Sud-Est asiatique et d'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont plantes de petite taille, vivaces et au feuillage persistant. 
 Elles fleurissent en hiver ou au début du printemps. 
@@ -546,7 +560,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont cultivées comme couvre-sol dans les zones ombragées.
 </t>
@@ -577,7 +593,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces est issue des informations de l'IPNI (International Plant Name Index) et de l'index du Jardin Botanique du Missouri (Index Tropicos) à la date de mars 2011.
 			Pachysandra procumbens
@@ -590,7 +608,7 @@
 Pachysandra axillaris var. stylosa (Dunn) M.Cheng (1980) (synonyme : Pachysandra stylosa Dunn)
 Pachysandra axillaris var. tricarpa Hayata (1912) : voir Pachysandra tricarpa (Hayata) S.S.Ying
 Pachysandra bodinieri H.Lév. (1913)
-Pachysandra coriacea Hook. (1825) [1]
+Pachysandra coriacea Hook. (1825) 
 Pachysandra erecta Raf. ex Baill.
 Pachysandra mairei H.Lév. (1916)
 Pachysandra procumbens Michx. (1803)
